--- a/experimental_results/sequential_NW_latex.xlsx
+++ b/experimental_results/sequential_NW_latex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\Uni\Master\Masterarbeit\tum-thesis-latex\experimental_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E060164F-87DB-4264-86F9-5C0B46247EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9870B3C9-D449-4065-B542-C894E1769E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{111DCF4D-529D-452B-9487-9B52E946AE84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{111DCF4D-529D-452B-9487-9B52E946AE84}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>itc99-poli</t>
   </si>
@@ -165,6 +165,42 @@
   </si>
   <si>
     <t>|W|</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>4.66632</t>
+  </si>
+  <si>
+    <t>1.01365</t>
+  </si>
+  <si>
+    <t>9.527</t>
+  </si>
+  <si>
+    <t>15.2846</t>
+  </si>
+  <si>
+    <t>1.34292</t>
+  </si>
+  <si>
+    <t>1.23536</t>
+  </si>
+  <si>
+    <t>6.27877</t>
+  </si>
+  <si>
+    <t>42.3646</t>
+  </si>
+  <si>
+    <t>10.0356</t>
+  </si>
+  <si>
+    <t>890.069</t>
   </si>
 </sst>
 </file>
@@ -194,7 +230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -318,24 +354,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -642,7 +727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -650,520 +735,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6456F71-34F7-45BD-AB69-AB8CABF711F0}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J18" sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D3" s="14">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E3" s="14">
         <v>127</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F3" s="14">
         <v>72</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G3" s="14">
         <v>107</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H3" s="14">
         <v>226</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I3" s="14">
         <v>2837</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J3" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="9">
         <v>4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E4" s="9">
         <v>68</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F4" s="9">
         <v>51</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G4" s="9">
         <v>56</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H4" s="9">
         <v>127</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I4" s="9">
         <v>1214</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J4" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D5" s="9">
         <v>30</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="9">
         <v>420</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F5" s="9">
         <v>352</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G5" s="9">
         <v>376</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H5" s="9">
         <v>4421</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I5" s="9">
         <v>47514</v>
       </c>
-      <c r="J4" s="12">
-        <v>1.0136499999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="1" t="s">
+      <c r="J5" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="9">
         <v>66</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="9">
         <v>1866</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F6" s="9">
         <v>1032</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G6" s="9">
         <v>1469</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H6" s="9">
         <v>28841</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I6" s="9">
         <v>440650</v>
       </c>
-      <c r="J5" s="12">
-        <v>9.5269999999999992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="1" t="s">
+      <c r="J6" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="9">
         <v>34</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="9">
         <v>2636</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="9">
         <v>1004</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="9">
         <v>1887</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="9">
         <v>19518</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="9">
         <v>366310</v>
       </c>
-      <c r="J6" s="12">
-        <v>15.284599999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="1" t="s">
+      <c r="J7" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="9">
         <v>9</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="9">
         <v>143</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="9">
         <v>102</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="9">
         <v>125</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="9">
         <v>425</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="9">
         <v>4660</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J8" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="9">
         <v>49</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="9">
         <v>1149</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="9">
         <v>682</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="9">
         <v>941</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="9">
         <v>15163</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="9">
         <v>196220</v>
       </c>
-      <c r="J8" s="12">
-        <v>4.6663199999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="1" t="s">
+      <c r="J9" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="9">
         <v>21</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="9">
         <v>462</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="9">
         <v>298</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="9">
         <v>387</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="9">
         <v>3428</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="9">
         <v>39367</v>
       </c>
-      <c r="J9" s="12">
-        <v>1.3429199999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="1" t="s">
+      <c r="J10" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="9">
         <v>28</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="9">
         <v>426</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="9">
         <v>341</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="9">
         <v>365</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="9">
         <v>4619</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="9">
         <v>44597</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J11" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D12" s="9">
         <v>17</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="9">
         <v>549</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="9">
         <v>291</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="9">
         <v>447</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="9">
         <v>4546</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="9">
         <v>47939</v>
       </c>
-      <c r="J11" s="12">
-        <v>1.23536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="1" t="s">
+      <c r="J12" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="9">
         <v>31</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="9">
         <v>1718</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="9">
         <v>683</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="9">
         <v>1303</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="9">
         <v>18781</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="9">
         <v>261924</v>
       </c>
-      <c r="J12" s="12">
-        <v>6.2787699999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="1" t="s">
+      <c r="J13" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="9">
         <v>121</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="9">
         <v>2854</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="9">
         <v>1706</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="9">
         <v>2313</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="9">
         <v>74904</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="9">
         <v>1195053</v>
       </c>
-      <c r="J13" s="12">
-        <v>42.364600000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="1" t="s">
+      <c r="J14" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="9">
         <v>53</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="9">
         <v>878</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="9">
         <v>670</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G15" s="9">
         <v>762</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="9">
         <v>14746</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I15" s="9">
         <v>174757</v>
       </c>
-      <c r="J14" s="12">
-        <v>10.035600000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="1" t="s">
+      <c r="J15" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="9">
         <v>245</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="9">
         <v>24900</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="9">
         <v>8648</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="9">
         <v>18087</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="9">
         <v>876527</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="9">
         <v>26976087</v>
       </c>
-      <c r="J15" s="12">
-        <v>890.06899999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="1" t="s">
+      <c r="J16" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="9">
         <v>449</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="8" t="s">
+      <c r="E17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="10">
         <v>1415</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6" t="s">
+      <c r="E18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
